--- a/examples/XlsxPeasant_04_utf16Test.xlsx
+++ b/examples/XlsxPeasant_04_utf16Test.xlsx
@@ -6364,7 +6364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8A1455-600B-4B69-9DC7-41DDFE60F916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194B1BDF-73DB-4B97-8F6E-AC55281CFD55}">
   <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
